--- a/run/output/iecodebook/auto_export.xlsx
+++ b/run/output/iecodebook/auto_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="305" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="122" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -149,15 +149,6 @@
   </si>
   <si>
     <t>Car origin</t>
-  </si>
-  <si>
-    <t>É</t>
-  </si>
-  <si>
-    <t>ã &amp; @</t>
-  </si>
-  <si>
-    <t>ã</t>
   </si>
 </sst>
 </file>
@@ -226,7 +217,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -268,7 +259,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -338,7 +329,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -366,7 +357,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -380,7 +371,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
